--- a/rate2_213.xlsx
+++ b/rate2_213.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoma/Documents/PVDM_office/yeekeh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4406F40B-857C-F74E-A220-9F77F3EB8AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C95E625-E4E6-6F41-8DEB-ADF81BC17DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
